--- a/2021/Estoque VRE 2021.xlsx
+++ b/2021/Estoque VRE 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vremo\Documents\GIT\Estoque_VRE\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A45F64-45B7-437F-8E09-A5783AEF58E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2952BD4B-A0D5-4C0D-9930-300BBA922DB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A0E4075-E7F0-435D-8A41-D09FDEB282B6}"/>
   </bookViews>
@@ -1081,10 +1081,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,6 +1100,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,18 +1124,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:AX663"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,19 +1465,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
@@ -1626,25 +1626,28 @@
         <f>SUM('Entrada de Comps'!C4:EG4)</f>
         <v>3</v>
       </c>
+      <c r="D4" s="1">
+        <v>5000</v>
+      </c>
       <c r="E4" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="27" t="str">
+      <c r="F4" s="27">
         <f t="shared" ref="F4:F67" ca="1" si="0">IFERROR(C4-(E4/D4),"")</f>
-        <v/>
-      </c>
-      <c r="G4" s="3" t="str">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
         <f ca="1">(IFERROR(F4*D4,""))</f>
-        <v/>
+        <v>15000</v>
       </c>
       <c r="H4" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="34" t="str">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="34">
         <f t="shared" ref="I4:I67" ca="1" si="1">IFERROR(G4-H4,"")</f>
-        <v/>
+        <v>5000</v>
       </c>
       <c r="K4" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -1676,25 +1679,28 @@
         <f>SUM('Entrada de Comps'!C5:EG5)</f>
         <v>7</v>
       </c>
+      <c r="D5" s="1">
+        <v>5000</v>
+      </c>
       <c r="E5" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="27" t="str">
+      <c r="F5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G5" s="3" t="str">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G67" ca="1" si="2">(IFERROR(F5*D5,""))</f>
-        <v/>
+        <v>35000</v>
       </c>
       <c r="H5" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="34" t="str">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>30000</v>
       </c>
       <c r="K5" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -2678,9 +2684,12 @@
         <f ca="1">SUM('Entrada de placas'!B26:HA26)-N26</f>
         <v>980</v>
       </c>
+      <c r="M26" s="1">
+        <v>1000</v>
+      </c>
       <c r="O26" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3294,25 +3303,28 @@
         <f>SUM('Entrada de Comps'!C40:EG40)</f>
         <v>2</v>
       </c>
+      <c r="D40" s="1">
+        <v>4000</v>
+      </c>
       <c r="E40" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>0</v>
       </c>
-      <c r="F40" s="27" t="str">
+      <c r="F40" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G40" s="3" t="str">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>8000</v>
       </c>
       <c r="H40" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="34" t="str">
+        <v>5000</v>
+      </c>
+      <c r="I40" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>3000</v>
       </c>
       <c r="K40" s="10" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -3662,25 +3674,28 @@
         <f>SUM('Entrada de Comps'!C48:EG48)</f>
         <v>24</v>
       </c>
+      <c r="D48" s="1">
+        <v>3000</v>
+      </c>
       <c r="E48" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>0</v>
       </c>
-      <c r="F48" s="27" t="str">
+      <c r="F48" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G48" s="3" t="str">
+        <v>24</v>
+      </c>
+      <c r="G48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>72000</v>
       </c>
       <c r="H48" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="34" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>71000</v>
       </c>
       <c r="K48" s="10" cm="1">
         <f t="array" aca="1" ref="K48" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -3754,25 +3769,28 @@
         <f>SUM('Entrada de Comps'!C50:EG50)</f>
         <v>6</v>
       </c>
+      <c r="D50" s="1">
+        <v>3000</v>
+      </c>
       <c r="E50" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>0</v>
       </c>
-      <c r="F50" s="27" t="str">
+      <c r="F50" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G50" s="3" t="str">
+        <v>6</v>
+      </c>
+      <c r="G50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>18000</v>
       </c>
       <c r="H50" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="34" t="str">
+        <v>1000</v>
+      </c>
+      <c r="I50" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>17000</v>
       </c>
       <c r="K50" s="10" cm="1">
         <f t="array" aca="1" ref="K50" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -4076,25 +4094,28 @@
         <f>SUM('Entrada de Comps'!C57:EG57)</f>
         <v>7</v>
       </c>
+      <c r="D57" s="1">
+        <v>3000</v>
+      </c>
       <c r="E57" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>0</v>
       </c>
-      <c r="F57" s="27" t="str">
+      <c r="F57" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G57" s="3" t="str">
+        <v>7</v>
+      </c>
+      <c r="G57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>21000</v>
       </c>
       <c r="H57" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="34" t="str">
+        <v>5000</v>
+      </c>
+      <c r="I57" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>16000</v>
       </c>
       <c r="K57" s="10" cm="1">
         <f t="array" aca="1" ref="K57" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -5056,7 +5077,7 @@
       </c>
       <c r="H78" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="I78" s="34" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -28998,11 +29019,11 @@
       </c>
     </row>
     <row r="600" spans="1:24" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A600" s="58" cm="1">
+      <c r="A600" s="47" cm="1">
         <f t="array" aca="1" ref="A600" ca="1">INDIRECT(ADDRESS(COLUMN()+1,ROW()+2,,,"Placas"))</f>
         <v>0</v>
       </c>
-      <c r="B600" s="58" cm="1">
+      <c r="B600" s="47" cm="1">
         <f t="array" aca="1" ref="B600" ca="1">INDIRECT(ADDRESS(COLUMN()+1,ROW()+2,,,"Placas"))</f>
         <v>0</v>
       </c>
@@ -30764,7 +30785,7 @@
   <cols>
     <col min="1" max="1" width="33.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11" style="55" customWidth="1"/>
+    <col min="3" max="3" width="11" style="44" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="41" width="9" style="1" customWidth="1"/>
     <col min="42" max="42" width="9.5703125" style="1" customWidth="1"/>
@@ -30791,24 +30812,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
@@ -30818,13 +30839,13 @@
     </row>
     <row r="2" spans="1:104" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="45" t="s">
         <v>189</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -31130,9 +31151,9 @@
     </row>
     <row r="3" spans="1:104" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -33322,23 +33343,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:197" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -40846,24 +40867,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
@@ -47360,10 +47381,10 @@
   <dimension ref="A1:U608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47375,36 +47396,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12">
+        <v>44253</v>
+      </c>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -47547,7 +47570,7 @@
         <v>CE0051</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IPDLCD RH07 RM01</v>
@@ -47557,7 +47580,7 @@
         <v>CE0061</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IPDM FRONT RH03 RM00</v>
@@ -47567,7 +47590,7 @@
         <v>CE0060</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IPDMCS FRONT 2D RH00 RM00</v>
@@ -47577,7 +47600,7 @@
         <v>CE0089</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IPDMCS CONTROL RH04 RM02</v>
@@ -47587,7 +47610,7 @@
         <v>CE0085</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IPDACS FRONT RH00 RM00</v>
@@ -47597,7 +47620,7 @@
         <v>CE0094</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IPDMG RH04 RM02</v>
@@ -47607,7 +47630,7 @@
         <v>CE0057</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IPDMQCS RH01 RM02</v>
@@ -47617,7 +47640,7 @@
         <v>CE0102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>Scala RH02 RM03</v>
@@ -47627,7 +47650,7 @@
         <v>CE0067</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IR SCALA RH04 RM00</v>
@@ -47637,7 +47660,7 @@
         <v>CE0069</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>IR SEG RH05 RM02</v>
@@ -47646,8 +47669,11 @@
         <f t="array" aca="1" ref="B26" ca="1">INDIRECT(ADDRESS(ROW()+1,2,,,"Placas"))</f>
         <v>CE0072</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>MINI8 RH02 RM02</v>
@@ -47657,7 +47683,7 @@
         <v>CE0099</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>MiniCAB RH00 RM02</v>
@@ -47667,7 +47693,7 @@
         <v>CE107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>MINILEV RH01 RM04</v>
@@ -47677,7 +47703,7 @@
         <v>CE0091</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>Monitor Freio RH01 RM01</v>
@@ -47687,7 +47713,7 @@
         <v>CE0108</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>Interface Multimidia RH03 RM04</v>
@@ -47697,7 +47723,7 @@
         <v>CE0098</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
         <v>PC Plus RH02 RM01</v>

--- a/2021/Estoque VRE 2021.xlsx
+++ b/2021/Estoque VRE 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vremo\Documents\GIT\Estoque_VRE\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D36F901-B254-4A08-9674-556823495F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62508A0-531E-4173-9126-3D4A481A8EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{4A0E4075-E7F0-435D-8A41-D09FDEB282B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4A0E4075-E7F0-435D-8A41-D09FDEB282B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="4" r:id="rId1"/>
@@ -1093,6 +1093,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,30 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:AX663"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,19 +1483,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
@@ -1594,25 +1594,28 @@
         <f>SUM('Entrada de Comps'!C3:EG3)</f>
         <v>6</v>
       </c>
+      <c r="D3" s="1">
+        <v>5000</v>
+      </c>
       <c r="E3" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>200</v>
       </c>
-      <c r="F3" s="27" t="str">
+      <c r="F3" s="27">
         <f ca="1">IFERROR(C3-(E3/D3),"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="3" t="str">
+        <v>5.96</v>
+      </c>
+      <c r="G3" s="3">
         <f ca="1">(IFERROR(F3*D3,""))</f>
-        <v/>
+        <v>29800</v>
       </c>
       <c r="H3" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>-200</v>
       </c>
-      <c r="I3" s="34" t="str">
+      <c r="I3" s="34">
         <f ca="1">IFERROR(G3-H3,"")</f>
-        <v/>
+        <v>30000</v>
       </c>
       <c r="K3" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -1750,25 +1753,28 @@
         <f>SUM('Entrada de Comps'!C6:EG6)</f>
         <v>4</v>
       </c>
+      <c r="D6" s="1">
+        <v>5000</v>
+      </c>
       <c r="E6" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>400</v>
       </c>
-      <c r="F6" s="27" t="str">
+      <c r="F6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G6" s="3" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>19600</v>
       </c>
       <c r="H6" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>-220</v>
       </c>
-      <c r="I6" s="34" t="str">
+      <c r="I6" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>19820</v>
       </c>
       <c r="K6" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -1800,25 +1806,28 @@
         <f>SUM('Entrada de Comps'!C7:EG7)</f>
         <v>5</v>
       </c>
+      <c r="D7" s="1">
+        <v>5000</v>
+      </c>
       <c r="E7" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>100</v>
       </c>
-      <c r="F7" s="27" t="str">
+      <c r="F7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="3" t="str">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>24900.000000000004</v>
       </c>
       <c r="H7" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
         <v>-100</v>
       </c>
-      <c r="I7" s="34" t="str">
+      <c r="I7" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>25000.000000000004</v>
       </c>
       <c r="K7" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -33303,8 +33312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96586D1-6591-4189-B6A1-45C1CC8D35F0}">
   <dimension ref="A1:CZ37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
@@ -33314,7 +33323,7 @@
   <cols>
     <col min="1" max="1" width="33.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11" style="56" customWidth="1"/>
+    <col min="3" max="3" width="11" style="47" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
     <col min="5" max="41" width="9" style="1" customWidth="1"/>
     <col min="42" max="42" width="9.5703125" style="1" customWidth="1"/>
@@ -33341,24 +33350,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
@@ -33371,7 +33380,7 @@
       <c r="B2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="46" t="s">
         <v>188</v>
       </c>
       <c r="D2" s="44" t="s">
@@ -33681,7 +33690,7 @@
     <row r="3" spans="1:104" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="55"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.25">
@@ -34925,7 +34934,7 @@
       <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="47">
         <v>919</v>
       </c>
       <c r="D24" s="3">
@@ -35075,7 +35084,7 @@
       <c r="B27" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="47">
         <v>40</v>
       </c>
       <c r="D27" s="3">
@@ -35884,23 +35893,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:197" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -43413,24 +43422,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
@@ -49929,11 +49938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F468BF3-4063-47E8-8620-40EFB4F0C747}">
   <dimension ref="A1:U608"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49945,37 +49954,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="62">
-        <v>44479</v>
-      </c>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="53">
+        <v>44211</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="61">
-        <v>360</v>
-      </c>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="52">
+        <v>327</v>
+      </c>
+      <c r="E1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="58"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>

--- a/2021/Estoque VRE 2021.xlsx
+++ b/2021/Estoque VRE 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vremo\Documents\GIT\Estoque_VRE\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62508A0-531E-4173-9126-3D4A481A8EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F037DE-8455-4579-B266-925CAED0C85F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4A0E4075-E7F0-435D-8A41-D09FDEB282B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{4A0E4075-E7F0-435D-8A41-D09FDEB282B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="4" r:id="rId1"/>
@@ -1599,19 +1599,19 @@
       </c>
       <c r="E3" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="27">
         <f ca="1">IFERROR(C3-(E3/D3),"")</f>
-        <v>5.96</v>
+        <v>5.8</v>
       </c>
       <c r="G3" s="3">
         <f ca="1">(IFERROR(F3*D3,""))</f>
-        <v>29800</v>
+        <v>29000</v>
       </c>
       <c r="H3" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="I3" s="34">
         <f ca="1">IFERROR(G3-H3,"")</f>
@@ -1652,23 +1652,23 @@
       </c>
       <c r="E4" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>14340</v>
+        <v>16340</v>
       </c>
       <c r="F4" s="27">
         <f t="shared" ref="F4:F67" ca="1" si="0">IFERROR(C4-(E4/D4),"")</f>
-        <v>0.13200000000000012</v>
+        <v>-0.26799999999999979</v>
       </c>
       <c r="G4" s="3">
         <f ca="1">(IFERROR(F4*D4,""))</f>
-        <v>660.00000000000057</v>
+        <v>-1339.9999999999989</v>
       </c>
       <c r="H4" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-410</v>
+        <v>-2410</v>
       </c>
       <c r="I4" s="34">
         <f t="shared" ref="I4:I67" ca="1" si="1">IFERROR(G4-H4,"")</f>
-        <v>1070.0000000000005</v>
+        <v>1070.0000000000011</v>
       </c>
       <c r="K4" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -1705,19 +1705,19 @@
       </c>
       <c r="E5" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>7220</v>
+        <v>8420</v>
       </c>
       <c r="F5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>5.556</v>
+        <v>5.3159999999999998</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ref="G5:G67" ca="1" si="2">(IFERROR(F5*D5,""))</f>
-        <v>27780</v>
+        <v>26580</v>
       </c>
       <c r="H5" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-120</v>
+        <v>-1320</v>
       </c>
       <c r="I5" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -1758,19 +1758,19 @@
       </c>
       <c r="E6" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>3.92</v>
+        <v>3.6</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>19600</v>
+        <v>18000</v>
       </c>
       <c r="H6" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-220</v>
+        <v>-1820</v>
       </c>
       <c r="I6" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -1811,23 +1811,23 @@
       </c>
       <c r="E7" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9800000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24900.000000000004</v>
+        <v>24500</v>
       </c>
       <c r="H7" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I7" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>25000.000000000004</v>
+        <v>25000</v>
       </c>
       <c r="K7" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F10" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="H10" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I10" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2585,15 +2585,15 @@
       </c>
       <c r="L22" s="1">
         <f ca="1">SUM('Entrada de placas'!B22:HA22)-N22</f>
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="N22" s="1">
         <f ca="1">SUM(Saida!B22:EG22)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2635,15 +2635,15 @@
       </c>
       <c r="L23" s="1">
         <f ca="1">SUM('Entrada de placas'!B23:HA23)-N23</f>
-        <v>1444</v>
+        <v>1344</v>
       </c>
       <c r="N23" s="1">
         <f ca="1">SUM(Saida!B23:EG23)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-100</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="E28" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="F28" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="H28" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-700</v>
+        <v>-3500</v>
       </c>
       <c r="I28" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="E29" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F29" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="H29" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I29" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3470,23 +3470,23 @@
       </c>
       <c r="E40" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>7620</v>
+        <v>10420</v>
       </c>
       <c r="F40" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4999999999999973E-2</v>
+        <v>-0.60499999999999998</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>379.99999999999989</v>
+        <v>-2420</v>
       </c>
       <c r="H40" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-460</v>
+        <v>-3260</v>
       </c>
       <c r="I40" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>839.99999999999989</v>
+        <v>840</v>
       </c>
       <c r="K40" s="10" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDIRECT(ADDRESS(ROW()+1,1,,,"Placas"))</f>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="E42" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F42" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="H42" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I42" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="E45" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H45" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I45" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3873,19 +3873,19 @@
       </c>
       <c r="E48" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>1384</v>
+        <v>1984</v>
       </c>
       <c r="F48" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>23.538666666666668</v>
+        <v>23.338666666666668</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>70616</v>
+        <v>70016</v>
       </c>
       <c r="H48" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>60</v>
+        <v>-540</v>
       </c>
       <c r="I48" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="E49" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="H49" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-300</v>
+        <v>-1500</v>
       </c>
       <c r="I49" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3976,19 +3976,19 @@
       </c>
       <c r="E50" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>1484</v>
+        <v>1884</v>
       </c>
       <c r="F50" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5053333333333336</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>16516</v>
+        <v>16116</v>
       </c>
       <c r="H50" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I50" s="34">
         <f t="shared" ca="1" si="1"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E51" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F51" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H51" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I51" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="E52" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="H52" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I52" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="E53" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F53" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="H53" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I53" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="E54" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F54" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="H54" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I54" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="E63" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="H63" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="I63" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="E64" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F64" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="H64" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I64" s="34" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="E85" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F85" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="H85" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I85" s="34" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="E86" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F86" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H86" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I86" s="34" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="E90" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+9)):INDIRECT(ADDRESS(400,COLUMN()+9)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F90" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H90" s="1">
         <f ca="1">SUMPRODUCT(INDIRECT(ADDRESS(3,COLUMN()+7)):INDIRECT(ADDRESS(400,COLUMN()+7)),INDIRECT(ADDRESS(4,ROW()+2,,,"Placas")):INDIRECT(ADDRESS(401,ROW()+2,,,"Placas")))</f>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I90" s="34" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -33313,7 +33313,7 @@
   <dimension ref="A1:CZ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
@@ -34869,6 +34869,12 @@
       <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="C23" s="47">
+        <v>1002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2.5</v>
+      </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
@@ -34935,10 +34941,10 @@
         <v>76</v>
       </c>
       <c r="C24" s="47">
-        <v>919</v>
+        <v>40065</v>
       </c>
       <c r="D24" s="3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -35085,10 +35091,10 @@
         <v>119</v>
       </c>
       <c r="C27" s="47">
-        <v>40</v>
+        <v>5023</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
@@ -35878,10 +35884,10 @@
   <dimension ref="A1:GO722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43411,7 +43417,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49939,7 +49945,7 @@
   <dimension ref="A1:U608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
@@ -50195,6 +50201,9 @@
         <f t="array" aca="1" ref="B22" ca="1">INDIRECT(ADDRESS(ROW()+1,2,,,"Placas"))</f>
         <v>CE0057</v>
       </c>
+      <c r="C22" s="1">
+        <v>300</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="str" cm="1">
@@ -50206,7 +50215,7 @@
         <v>CE0102</v>
       </c>
       <c r="C23" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
